--- a/AAII_Financials/Quarterly/IYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IYY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/IYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="92">
   <si>
     <t>IYY</t>
   </si>
@@ -719,26 +719,26 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>9200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>9100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>8000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>7700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>7500</v>
-      </c>
-      <c r="I8" s="3">
-        <v>6700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>6200</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K8" s="3">
         <v>5700</v>
@@ -748,26 +748,26 @@
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>900</v>
-      </c>
-      <c r="F9" s="3">
-        <v>800</v>
-      </c>
-      <c r="G9" s="3">
-        <v>800</v>
-      </c>
-      <c r="H9" s="3">
-        <v>600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>600</v>
-      </c>
-      <c r="J9" s="3">
-        <v>600</v>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K9" s="3">
         <v>600</v>
@@ -777,26 +777,26 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>8200</v>
-      </c>
-      <c r="E10" s="3">
-        <v>8200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>7200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>6900</v>
-      </c>
-      <c r="H10" s="3">
-        <v>6900</v>
-      </c>
-      <c r="I10" s="3">
-        <v>6100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>5600</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K10" s="3">
         <v>5100</v>
@@ -877,26 +877,26 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -906,26 +906,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -945,26 +945,26 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>600</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K17" s="3">
         <v>600</v>
@@ -974,26 +974,26 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>8200</v>
-      </c>
-      <c r="E18" s="3">
-        <v>8200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>7200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>6900</v>
-      </c>
-      <c r="H18" s="3">
-        <v>6900</v>
-      </c>
-      <c r="I18" s="3">
-        <v>6100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>5600</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K18" s="3">
         <v>5100</v>
@@ -1016,26 +1016,26 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>34600</v>
-      </c>
-      <c r="E20" s="3">
-        <v>57900</v>
-      </c>
-      <c r="F20" s="3">
-        <v>57200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>73900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>83800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>65500</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K20" s="3">
         <v>-59900</v>
@@ -1074,26 +1074,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1103,26 +1103,26 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>42800</v>
-      </c>
-      <c r="E23" s="3">
-        <v>66100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>64400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>80900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>90700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>8500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>71100</v>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K23" s="3">
         <v>-54800</v>
@@ -1132,26 +1132,26 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1190,26 +1190,26 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>42800</v>
-      </c>
-      <c r="E26" s="3">
-        <v>66100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>64400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>80900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>90700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>8500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>71100</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K26" s="3">
         <v>-54800</v>
@@ -1219,26 +1219,26 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>42800</v>
-      </c>
-      <c r="E27" s="3">
-        <v>66100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>64400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>80900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>90700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>8500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>71100</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K27" s="3">
         <v>-54800</v>
@@ -1277,26 +1277,26 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1364,26 +1364,26 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-34600</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-57900</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-57200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-73900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-83800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-65500</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K32" s="3">
         <v>59900</v>
@@ -1393,26 +1393,26 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>42800</v>
-      </c>
-      <c r="E33" s="3">
-        <v>66100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>64400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>80900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>90700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>8500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>71100</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K33" s="3">
         <v>-54800</v>
@@ -1451,26 +1451,26 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>42800</v>
-      </c>
-      <c r="E35" s="3">
-        <v>66100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>64400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>80900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>90700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>8500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>71100</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K35" s="3">
         <v>-54800</v>
@@ -1540,23 +1540,23 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
+      <c r="D41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
+      <c r="G41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
@@ -1569,26 +1569,26 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1598,26 +1598,26 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>800</v>
-      </c>
-      <c r="E43" s="3">
-        <v>900</v>
-      </c>
-      <c r="F43" s="3">
-        <v>800</v>
-      </c>
-      <c r="G43" s="3">
-        <v>700</v>
-      </c>
-      <c r="H43" s="3">
-        <v>600</v>
-      </c>
-      <c r="I43" s="3">
-        <v>700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>600</v>
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K43" s="3">
         <v>600</v>
@@ -1627,26 +1627,26 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1656,26 +1656,26 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -1685,26 +1685,26 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
+      <c r="D46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -1714,26 +1714,26 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>992400</v>
-      </c>
-      <c r="E47" s="3">
-        <v>964800</v>
-      </c>
-      <c r="F47" s="3">
-        <v>908900</v>
-      </c>
-      <c r="G47" s="3">
-        <v>815600</v>
-      </c>
-      <c r="H47" s="3">
-        <v>724400</v>
-      </c>
-      <c r="I47" s="3">
-        <v>627800</v>
-      </c>
-      <c r="J47" s="3">
-        <v>684300</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>550500</v>
@@ -1743,26 +1743,26 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -1772,26 +1772,26 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -1859,26 +1859,26 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -1917,26 +1917,26 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>993200</v>
-      </c>
-      <c r="E54" s="3">
-        <v>965700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>909600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>816300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>725100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>628500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>684900</v>
+      <c r="D54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K54" s="3">
         <v>551100</v>
@@ -1972,26 +1972,26 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2001,26 +2001,26 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2030,26 +2030,26 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>24300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>26300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>20500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>16300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>12700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>12500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>17000</v>
+      <c r="D59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K59" s="3">
         <v>15800</v>
@@ -2059,26 +2059,26 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -2117,26 +2117,26 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2233,26 +2233,26 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>24300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>26300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>20500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>16300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>12700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>12500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>17000</v>
+      <c r="D66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K66" s="3">
         <v>15800</v>
@@ -2333,26 +2333,26 @@
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="3">
-        <v>0</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
+      <c r="D70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2391,26 +2391,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>1500</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>900</v>
-      </c>
-      <c r="J72" s="3">
-        <v>600</v>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K72" s="3">
         <v>700</v>
@@ -2507,26 +2507,26 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>968900</v>
-      </c>
-      <c r="E76" s="3">
-        <v>939500</v>
-      </c>
-      <c r="F76" s="3">
-        <v>889200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>800000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>712400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>616000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>667900</v>
+      <c r="D76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K76" s="3">
         <v>535300</v>
@@ -2599,26 +2599,26 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>42800</v>
-      </c>
-      <c r="E81" s="3">
-        <v>66100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>64400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>80900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>90700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>8500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>71100</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K81" s="3">
         <v>-54800</v>
@@ -2641,26 +2641,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2815,26 +2815,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>42800</v>
-      </c>
-      <c r="E89" s="3">
-        <v>66100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>64400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>80900</v>
-      </c>
-      <c r="H89" s="3">
-        <v>90700</v>
-      </c>
-      <c r="I89" s="3">
-        <v>8500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>71100</v>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K89" s="3">
         <v>-54800</v>
@@ -2857,26 +2857,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -2944,26 +2944,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -2987,25 +2987,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-8800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-7600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-7500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-6500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-7100</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-5800</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-5700</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-5000</v>
@@ -3102,26 +3102,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-13400</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-15800</v>
-      </c>
-      <c r="F100" s="3">
-        <v>24800</v>
-      </c>
-      <c r="G100" s="3">
-        <v>6700</v>
-      </c>
-      <c r="H100" s="3">
-        <v>5800</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-60400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>61600</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-86900</v>
@@ -3131,26 +3131,26 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3160,26 +3160,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>29500</v>
-      </c>
-      <c r="E102" s="3">
-        <v>50300</v>
-      </c>
-      <c r="F102" s="3">
-        <v>89200</v>
-      </c>
-      <c r="G102" s="3">
-        <v>87600</v>
-      </c>
-      <c r="H102" s="3">
-        <v>96400</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-51900</v>
-      </c>
-      <c r="J102" s="3">
-        <v>132600</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K102" s="3">
         <v>-141700</v>
